--- a/2总理：财务自由/财政：资产负债表.xlsx
+++ b/2总理：财务自由/财政：资产负债表.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp/2总理：经济学/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp/2总理：财务自由/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="美股记录" sheetId="6" r:id="rId1"/>
     <sheet name="A股记录" sheetId="2" r:id="rId2"/>
     <sheet name="比特币记录" sheetId="4" r:id="rId3"/>
     <sheet name="投资策略" sheetId="1" r:id="rId4"/>
-    <sheet name="每日文字收入流" sheetId="5" r:id="rId5"/>
-    <sheet name="个人大额收支状态" sheetId="3" r:id="rId6"/>
+    <sheet name="个人大额收支状态" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>我的定投计划</t>
     <rPh sb="0" eb="1">
@@ -864,22 +863,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>写作产品文字流</t>
-    <rPh sb="0" eb="1">
-      <t>xie'zuo'chan'pin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wen'zi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>liu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计</t>
-    <rPh sb="0" eb="1">
-      <t>zong'ji</t>
+    <t>学费返还</t>
+    <rPh sb="0" eb="1">
+      <t>xue'fei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'huan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1650,51 +1639,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>170929</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2920</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1759,7 +1707,7 @@
         <v>10000</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D16" si="0">D3+C4</f>
+        <f t="shared" ref="D4:D17" si="0">D3+C4</f>
         <v>12900</v>
       </c>
     </row>
@@ -1941,6 +1889,21 @@
       <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>171201</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>8050</v>
       </c>
     </row>
   </sheetData>

--- a/2总理：财务自由/财政：资产负债表.xlsx
+++ b/2总理：财务自由/财政：资产负债表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="美股记录" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>我的定投计划</t>
     <rPh sb="0" eb="1">
@@ -1397,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1494,6 +1494,23 @@
       <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>171206</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>89999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.49009999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1639,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A11" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1707,7 +1724,7 @@
         <v>10000</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D17" si="0">D3+C4</f>
+        <f t="shared" ref="D4:D18" si="0">D3+C4</f>
         <v>12900</v>
       </c>
     </row>
@@ -1904,6 +1921,21 @@
       <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>8050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>171206</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-7000</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>

--- a/2总理：财务自由/财政：资产负债表.xlsx
+++ b/2总理：财务自由/财政：资产负债表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="美股记录" sheetId="6" r:id="rId1"/>
@@ -1237,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E2"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1399,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
